--- a/pred_ohlcv/54_21/2019-10-26 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>37574.95681911999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>41689.57261911999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>33634.41341911999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>33680.85171911999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>29747.39631911999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29748.63231912</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29153.86501912</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>14007.01111912</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2262.090480880005</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-10571.26618088</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10570.01618088</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>55177.09706125</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>35963.09496125</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>37392.61906125</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>36592.44396125</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>27884.46506125</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>29783.39045887</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>31401.85825887</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>47365.60975887</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>47226.78875887</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>44611.21325887</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>44611.21325887</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>44991.06515887</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>44703.09485887</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>36370.40805887</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>35853.53205887001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>34508.22077659997</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>31150.10837659997</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>31932.79307659997</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>17513.94827659997</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>18166.70927659997</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>27314.60302523998</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>15421.08062523998</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-19389.10606832002</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-20989.14556832002</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-24130.62516832002</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-22482.22196832002</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-23482.22196832002</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-22480.63316832002</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-22529.19686832001</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-22526.16576832001</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-22577.12976832001</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-13687.12976832001</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-13012.94726832001</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-14336.37906832001</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-14335.02076832001</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-21967.25656832002</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-21958.37246832002</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-21929.52216832002</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-22148.87566832002</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-25073.72556832002</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-30287.56916832002</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-30161.56916832002</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-33937.00326832002</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-29518.88726832002</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-30228.88726832002</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-33672.70706832001</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-33517.70706832001</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-36428.37376832002</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-39405.79346832001</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-128299.56378993</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-134595.03128993</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-140320.42078993</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-131256.17698993</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-131044.03858993</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-134321.73488993</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-134329.73488993</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-108771.04567094</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-120295.80457094</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>37574.95681911999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>41689.57261911999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>33634.41341911999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>33680.85171911999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>29747.39631911999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>29748.63231912</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>29153.86501912</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>14007.01111912</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-15534.72038088001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2261.090480880005</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2262.090480880005</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-10571.26618088</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-10570.01618088</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>43155.98253494</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>42497.90253494</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>55177.09706125</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>55177.09706125</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>64219.03326124999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>49982.17796125</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>35963.09496125</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>37392.61906125</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>36592.44396125</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>37144.38286125</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>27884.46506125</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>29783.39045887</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>31401.85825887</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>47364.60975887</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>47364.35375887</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>47226.78875887</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>44611.21325887</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>44611.21325887</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>44991.06515887</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>36370.40805887</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>35853.53205887001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>29122.07915887</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>41170.62135887</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>71537.90122552999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>74239.25962552999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>32553.97312552998</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>32555.07312552998</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>31360.33022552998</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>34508.22077659997</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>32024.81987659997</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>31150.10837659997</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>31932.79307659997</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>17513.94827659997</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>18423.20037659997</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>18166.70927659997</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>28105.71152523997</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>27314.60302523998</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>15421.08062523998</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-34504.91534093002</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-19389.10606832002</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-20989.14556832002</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-24130.62516832002</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-22482.22196832002</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-23482.22196832002</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-22480.63316832002</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-22529.19686832001</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-22528.08996832002</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-22526.16576832001</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-22577.12976832001</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-13687.12976832001</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-13012.94726832001</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-13772.43016832001</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-14336.37906832001</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-14335.02076832001</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-21967.25656832002</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-21958.37246832002</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-21929.52216832002</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-22148.87566832002</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-22307.58466832002</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-25740.85006832002</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-25073.72556832002</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-30287.56916832002</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-30161.56916832002</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-33937.00326832002</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-29518.88726832002</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-30228.88726832002</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-33672.70706832001</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-33517.70706832001</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-36428.37376832002</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-39405.79346832001</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-128645.01488993</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-136059.11668993</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-128299.56378993</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-134595.03128993</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-140320.42078993</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-131256.17698993</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-131044.03858993</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-134321.73488993</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-134329.73488993</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-126130.03578993</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-124701.23388993</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-109546.26837094</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-106754.54727094</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-107413.40087094</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-110079.40087094</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-110079.40087094</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-109681.04567094</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-108771.04567094</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-108771.04567094</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-107971.04567094</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-121350.17257094</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-122407.11417094</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-120295.80457094</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-120295.80457094</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-118912.37657094</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-117593.13006953</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-116705.11896953</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-116705.11896953</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-90882.34276952999</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
